--- a/QA/testcases/LLS/Pharmacy/012_L_Prov_Remitter_To_POEs.xlsx
+++ b/QA/testcases/LLS/Pharmacy/012_L_Prov_Remitter_To_POEs.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236">
   <si>
     <t>Step No</t>
   </si>
@@ -53,685 +53,688 @@
     <t>Reference Step</t>
   </si>
   <si>
+    <t>LLSPharmacyLogin</t>
+  </si>
+  <si>
+    <t>Launch URL and login as Pharmacy</t>
+  </si>
+  <si>
+    <t>Logged in successfully</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>Wait till page get loaded</t>
+  </si>
+  <si>
+    <t>Page loaded successfully</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ByID</t>
+  </si>
+  <si>
+    <t>SSN1_FIELD</t>
+  </si>
+  <si>
+    <t>Enter SSN</t>
+  </si>
+  <si>
+    <t>SSN entered</t>
+  </si>
+  <si>
+    <t>SSN2_FIELD</t>
+  </si>
+  <si>
+    <t>SSN3_FIELD</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>ByXPath</t>
+  </si>
+  <si>
+    <t>SEARCH_BUTTON_LINK</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>Search button clicked</t>
+  </si>
+  <si>
+    <t>HOME_ACTIONS</t>
+  </si>
+  <si>
+    <t>Click on Actions</t>
+  </si>
+  <si>
+    <t>Actions clicked</t>
+  </si>
+  <si>
+    <t>PROVIDER_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click on Expenditure</t>
+  </si>
+  <si>
+    <t>Clicked Expenditure</t>
+  </si>
+  <si>
+    <t>CREATE_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click Create expenditure</t>
+  </si>
+  <si>
+    <t>Create Expenditure clicked</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>Select Date</t>
+  </si>
+  <si>
+    <t>Date selected</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_AMOUNT_SUBMITTED</t>
+  </si>
+  <si>
+    <t>SelectByVisibleText</t>
+  </si>
+  <si>
+    <t>REMITTER_TO_DROPDOWN</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>EXPE_NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on next button</t>
+  </si>
+  <si>
+    <t>Next page navigated successfully</t>
+  </si>
+  <si>
+    <t>TypeDynamicValue</t>
+  </si>
+  <si>
+    <t>UDPLOAD_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>_Desc</t>
+  </si>
+  <si>
+    <t>TypeUpload</t>
+  </si>
+  <si>
+    <t>UPLOAD_FILE</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Upload a file</t>
+  </si>
+  <si>
+    <t>File uploaded</t>
+  </si>
+  <si>
+    <t>EXPE_SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>EXPE_ELECTRONIC_SIGN</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>NEW_CLOSE_BUTTON</t>
+  </si>
+  <si>
+    <t>Close the popup</t>
+  </si>
+  <si>
+    <t>Popup closed</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>POE_ID</t>
+  </si>
+  <si>
+    <t>Get POE ID</t>
+  </si>
+  <si>
+    <t>POE id retrieved</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>REMITTER_PAYABLE_TO</t>
+  </si>
+  <si>
+    <t>REMITTER_ADDRESS</t>
+  </si>
+  <si>
+    <t>REMITTER_CITY</t>
+  </si>
+  <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
+    <t>REMITTER_STATE</t>
+  </si>
+  <si>
+    <t>REMITTER_ZIPCODE</t>
+  </si>
+  <si>
+    <t>PROVIDER_SEARCH_ICON</t>
+  </si>
+  <si>
+    <t>PROVIDER_SEARCH_NAME_LINK</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>Search clicked</t>
+  </si>
+  <si>
+    <t>PATIENT_STATE</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>State selected</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Enter Last name</t>
+  </si>
+  <si>
+    <t>Last name entered</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH_FIRST</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>FACILITY/PRACTICE_NAME</t>
+  </si>
+  <si>
+    <t>Enter Facility name</t>
+  </si>
+  <si>
+    <t>Entered</t>
+  </si>
+  <si>
+    <t>CLICK_HERE_PROVIDER</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>Enter First  name</t>
+  </si>
+  <si>
+    <t>First name entered</t>
+  </si>
+  <si>
+    <t>ADD_PROV_LAST_NAME</t>
+  </si>
+  <si>
+    <t>Enter last name</t>
+  </si>
+  <si>
+    <t>TenDigitPhone</t>
+  </si>
+  <si>
+    <t>ADD_PROV_NPI</t>
+  </si>
+  <si>
+    <t>Enter NPI</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FACILITY_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_TAXID</t>
+  </si>
+  <si>
+    <t>Enter TaxID</t>
+  </si>
+  <si>
+    <t>PAYMENT_TYPE_EFT</t>
+  </si>
+  <si>
+    <t>Click EFT YEs</t>
+  </si>
+  <si>
+    <t>Clicked</t>
+  </si>
+  <si>
+    <t>AUTH_PAYMENT_YES</t>
+  </si>
+  <si>
+    <t>Click Auth Payment YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PHYSICIAN_YES</t>
+  </si>
+  <si>
+    <t>Click Auth physician Yes</t>
+  </si>
+  <si>
+    <t>PROV_ADDRESS_TYPE</t>
+  </si>
+  <si>
+    <t>Select Address Type</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>ADD_PROV_ADDRESS</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>Type address</t>
+  </si>
+  <si>
+    <t>Address entered</t>
+  </si>
+  <si>
+    <t>PROV_SUITE_NO</t>
+  </si>
+  <si>
+    <t>ADD_PROV_PATIENT_STATE</t>
+  </si>
+  <si>
+    <t>ADD_PROV_CITY</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>REG_ZIP_CODE</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>PROV_EXT</t>
+  </si>
+  <si>
+    <t>PROV_FAX</t>
+  </si>
+  <si>
+    <t>PATIENT_EMAIL</t>
+  </si>
+  <si>
+    <t>@mail.in</t>
+  </si>
+  <si>
+    <t>PROV_CONTACT_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>PROV_OFFICE_MAIL</t>
+  </si>
+  <si>
+    <t>ADD_PROV_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>Next button clicked</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
+    <t>GetAttribute</t>
+  </si>
+  <si>
+    <t>GetCount</t>
+  </si>
+  <si>
+    <t>GetCurrentURL</t>
+  </si>
+  <si>
+    <t>SelectCheckBox</t>
+  </si>
+  <si>
+    <t>SelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectCheckBox</t>
+  </si>
+  <si>
+    <t>DeSelectByIndex</t>
+  </si>
+  <si>
+    <t>DeSelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectByVisibleText</t>
+  </si>
+  <si>
+    <t>SwitchFrameByName</t>
+  </si>
+  <si>
+    <t>SwitchFrameByIndex</t>
+  </si>
+  <si>
+    <t>SwitchFrameByXpath</t>
+  </si>
+  <si>
+    <t>SwitchFrame</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultFrame</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>DismissAlert</t>
+  </si>
+  <si>
+    <t>AlertDismiss</t>
+  </si>
+  <si>
+    <t>PromptBox</t>
+  </si>
+  <si>
+    <t>GenerateAlert</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>GetWindowHandle</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultWindow</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultContent</t>
+  </si>
+  <si>
+    <t>GetAutoIt</t>
+  </si>
+  <si>
+    <t>ScrollDown</t>
+  </si>
+  <si>
+    <t>ScrollUp</t>
+  </si>
+  <si>
+    <t>ScrollBottom</t>
+  </si>
+  <si>
+    <t>KeyboardPageUp</t>
+  </si>
+  <si>
+    <t>KeyboardPageDown</t>
+  </si>
+  <si>
+    <t>KeyboardEnd</t>
+  </si>
+  <si>
+    <t>KeyboardTab</t>
+  </si>
+  <si>
+    <t>PageMaximize</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>KeyboardArrowUp</t>
+  </si>
+  <si>
+    <t>KeyboardArrowDown</t>
+  </si>
+  <si>
+    <t>KeyboardArrowLeft</t>
+  </si>
+  <si>
+    <t>KeyboardArrowRight</t>
+  </si>
+  <si>
+    <t>Drag</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>VerifyElementIsSelected</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>VerifyElementIsNotPresent</t>
+  </si>
+  <si>
+    <t>VerifyElementIsEnable</t>
+  </si>
+  <si>
+    <t>WaitUntilVisibilityOfElement</t>
+  </si>
+  <si>
+    <t>WaitUntilInvisibilityOfElement</t>
+  </si>
+  <si>
+    <t>VerifyTextIsPresent</t>
+  </si>
+  <si>
+    <t>WaitUntilTextToBeNotPresent</t>
+  </si>
+  <si>
+    <t>WaitUntilTextToBePresent</t>
+  </si>
+  <si>
+    <t>WaitUntilElementToBeClickable</t>
+  </si>
+  <si>
+    <t>WaitUntilElementToBeSelected</t>
+  </si>
+  <si>
+    <t>TextToBePresentInElementValue</t>
+  </si>
+  <si>
+    <t>WaitForElementPresent</t>
+  </si>
+  <si>
+    <t>WaitForElementNotPresent</t>
+  </si>
+  <si>
+    <t>CheckTwoString</t>
+  </si>
+  <si>
+    <t>DeleteAllCookies</t>
+  </si>
+  <si>
+    <t>TakeScreeShot</t>
+  </si>
+  <si>
+    <t>Highlight</t>
+  </si>
+  <si>
+    <t>NewTab</t>
+  </si>
+  <si>
+    <t>CloseTab</t>
+  </si>
+  <si>
+    <t>SendHttpPost</t>
+  </si>
+  <si>
+    <t>SplitAndOpenURL</t>
+  </si>
+  <si>
+    <t>WaitForAjaxQuery</t>
+  </si>
+  <si>
+    <t>TypeUsingReference</t>
+  </si>
+  <si>
+    <t>CurrentWindowName</t>
+  </si>
+  <si>
+    <t>GetSecondWindowHandle</t>
+  </si>
+  <si>
+    <t>SwitchParticularWindow</t>
+  </si>
+  <si>
+    <t>TypeDynamicValueReuse</t>
+  </si>
+  <si>
+    <t>PatientLogin</t>
+  </si>
+  <si>
+    <t>PortalSelection</t>
+  </si>
+  <si>
+    <t>PatientSSN</t>
+  </si>
+  <si>
+    <t>PharmacyLogin</t>
+  </si>
+  <si>
+    <t>SSN9Digit</t>
+  </si>
+  <si>
+    <t>ProviderLogin</t>
+  </si>
+  <si>
+    <t>SikuliClick</t>
+  </si>
+  <si>
     <t>LLSProviderLogin</t>
-  </si>
-  <si>
-    <t>Launch URL and login as Pharmacy</t>
-  </si>
-  <si>
-    <t>Logged in successfully</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>Wait till page get loaded</t>
-  </si>
-  <si>
-    <t>Page loaded successfully</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>ByID</t>
-  </si>
-  <si>
-    <t>SSN1_FIELD</t>
-  </si>
-  <si>
-    <t>Enter SSN</t>
-  </si>
-  <si>
-    <t>SSN entered</t>
-  </si>
-  <si>
-    <t>SSN2_FIELD</t>
-  </si>
-  <si>
-    <t>SSN3_FIELD</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>ByXPath</t>
-  </si>
-  <si>
-    <t>SEARCH_BUTTON_LINK</t>
-  </si>
-  <si>
-    <t>Click Search</t>
-  </si>
-  <si>
-    <t>Search button clicked</t>
-  </si>
-  <si>
-    <t>HOME_ACTIONS</t>
-  </si>
-  <si>
-    <t>Click on Actions</t>
-  </si>
-  <si>
-    <t>Actions clicked</t>
-  </si>
-  <si>
-    <t>PROVIDER_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click on Expenditure</t>
-  </si>
-  <si>
-    <t>Clicked Expenditure</t>
-  </si>
-  <si>
-    <t>CREATE_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click Create expenditure</t>
-  </si>
-  <si>
-    <t>Create Expenditure clicked</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>Select Date</t>
-  </si>
-  <si>
-    <t>Date selected</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_AMOUNT_SUBMITTED</t>
-  </si>
-  <si>
-    <t>SelectByVisibleText</t>
-  </si>
-  <si>
-    <t>REMITTER_TO_DROPDOWN</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>EXPE_NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on next button</t>
-  </si>
-  <si>
-    <t>Next page navigated successfully</t>
-  </si>
-  <si>
-    <t>TypeDynamicValue</t>
-  </si>
-  <si>
-    <t>UDPLOAD_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>_Desc</t>
-  </si>
-  <si>
-    <t>TypeUpload</t>
-  </si>
-  <si>
-    <t>UPLOAD_FILE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>Upload a file</t>
-  </si>
-  <si>
-    <t>File uploaded</t>
-  </si>
-  <si>
-    <t>EXPE_SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>EXPE_ELECTRONIC_SIGN</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>NEW_CLOSE_BUTTON</t>
-  </si>
-  <si>
-    <t>Close the popup</t>
-  </si>
-  <si>
-    <t>Popup closed</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>POE_ID</t>
-  </si>
-  <si>
-    <t>Get POE ID</t>
-  </si>
-  <si>
-    <t>POE id retrieved</t>
-  </si>
-  <si>
-    <t>Provider</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>REMITTER_PAYABLE_TO</t>
-  </si>
-  <si>
-    <t>REMITTER_ADDRESS</t>
-  </si>
-  <si>
-    <t>REMITTER_CITY</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
-  </si>
-  <si>
-    <t>REMITTER_STATE</t>
-  </si>
-  <si>
-    <t>REMITTER_ZIPCODE</t>
-  </si>
-  <si>
-    <t>PROVIDER_SEARCH_ICON</t>
-  </si>
-  <si>
-    <t>PROVIDER_SEARCH_NAME_LINK</t>
-  </si>
-  <si>
-    <t>Click Search button</t>
-  </si>
-  <si>
-    <t>Search clicked</t>
-  </si>
-  <si>
-    <t>PATIENT_STATE</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Select State from the search popup</t>
-  </si>
-  <si>
-    <t>State selected</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_LASTNAME</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>Enter Last name</t>
-  </si>
-  <si>
-    <t>Last name entered</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH_FIRST</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>FACILITY/PRACTICE_NAME</t>
-  </si>
-  <si>
-    <t>Enter Facility name</t>
-  </si>
-  <si>
-    <t>Entered</t>
-  </si>
-  <si>
-    <t>CLICK_HERE_PROVIDER</t>
-  </si>
-  <si>
-    <t>ADD_PROV_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>Enter First  name</t>
-  </si>
-  <si>
-    <t>First name entered</t>
-  </si>
-  <si>
-    <t>ADD_PROV_LAST_NAME</t>
-  </si>
-  <si>
-    <t>Enter last name</t>
-  </si>
-  <si>
-    <t>TenDigitPhone</t>
-  </si>
-  <si>
-    <t>ADD_PROV_NPI</t>
-  </si>
-  <si>
-    <t>Enter NPI</t>
-  </si>
-  <si>
-    <t>ADD_PROV_FACILITY_NAME</t>
-  </si>
-  <si>
-    <t>ADD_PROV_TAXID</t>
-  </si>
-  <si>
-    <t>Enter TaxID</t>
-  </si>
-  <si>
-    <t>PAYMENT_TYPE_EFT</t>
-  </si>
-  <si>
-    <t>Click EFT YEs</t>
-  </si>
-  <si>
-    <t>Clicked</t>
-  </si>
-  <si>
-    <t>AUTH_PAYMENT_YES</t>
-  </si>
-  <si>
-    <t>Click Auth Payment YEs</t>
-  </si>
-  <si>
-    <t>AUTH_PHYSICIAN_YES</t>
-  </si>
-  <si>
-    <t>Click Auth physician Yes</t>
-  </si>
-  <si>
-    <t>PROV_ADDRESS_TYPE</t>
-  </si>
-  <si>
-    <t>Select Address Type</t>
-  </si>
-  <si>
-    <t>selected</t>
-  </si>
-  <si>
-    <t>ADD_PROV_ADDRESS</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>Type address</t>
-  </si>
-  <si>
-    <t>Address entered</t>
-  </si>
-  <si>
-    <t>PROV_SUITE_NO</t>
-  </si>
-  <si>
-    <t>ADD_PROV_PATIENT_STATE</t>
-  </si>
-  <si>
-    <t>ADD_PROV_CITY</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>REG_ZIP_CODE</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_PHONE</t>
-  </si>
-  <si>
-    <t>PROV_EXT</t>
-  </si>
-  <si>
-    <t>PROV_FAX</t>
-  </si>
-  <si>
-    <t>PATIENT_EMAIL</t>
-  </si>
-  <si>
-    <t>@mail.in</t>
-  </si>
-  <si>
-    <t>PROV_CONTACT_NAME</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>PROV_OFFICE_MAIL</t>
-  </si>
-  <si>
-    <t>ADD_PROV_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>Next button clicked</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetAttribute</t>
-  </si>
-  <si>
-    <t>GetCount</t>
-  </si>
-  <si>
-    <t>GetCurrentURL</t>
-  </si>
-  <si>
-    <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectCheckBox</t>
-  </si>
-  <si>
-    <t>DeSelectByIndex</t>
-  </si>
-  <si>
-    <t>DeSelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectByVisibleText</t>
-  </si>
-  <si>
-    <t>SwitchFrameByName</t>
-  </si>
-  <si>
-    <t>SwitchFrameByIndex</t>
-  </si>
-  <si>
-    <t>SwitchFrameByXpath</t>
-  </si>
-  <si>
-    <t>SwitchFrame</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultFrame</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Forward</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>DismissAlert</t>
-  </si>
-  <si>
-    <t>AlertDismiss</t>
-  </si>
-  <si>
-    <t>PromptBox</t>
-  </si>
-  <si>
-    <t>GenerateAlert</t>
-  </si>
-  <si>
-    <t>Close</t>
-  </si>
-  <si>
-    <t>GetWindowHandle</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultWindow</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultContent</t>
-  </si>
-  <si>
-    <t>GetAutoIt</t>
-  </si>
-  <si>
-    <t>ScrollDown</t>
-  </si>
-  <si>
-    <t>ScrollUp</t>
-  </si>
-  <si>
-    <t>ScrollBottom</t>
-  </si>
-  <si>
-    <t>KeyboardPageUp</t>
-  </si>
-  <si>
-    <t>KeyboardPageDown</t>
-  </si>
-  <si>
-    <t>KeyboardEnd</t>
-  </si>
-  <si>
-    <t>KeyboardTab</t>
-  </si>
-  <si>
-    <t>PageMaximize</t>
-  </si>
-  <si>
-    <t>Enter</t>
-  </si>
-  <si>
-    <t>KeyboardArrowUp</t>
-  </si>
-  <si>
-    <t>KeyboardArrowDown</t>
-  </si>
-  <si>
-    <t>KeyboardArrowLeft</t>
-  </si>
-  <si>
-    <t>KeyboardArrowRight</t>
-  </si>
-  <si>
-    <t>Drag</t>
-  </si>
-  <si>
-    <t>Drop</t>
-  </si>
-  <si>
-    <t>VerifyElementIsSelected</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>VerifyElementIsNotPresent</t>
-  </si>
-  <si>
-    <t>VerifyElementIsEnable</t>
-  </si>
-  <si>
-    <t>WaitUntilVisibilityOfElement</t>
-  </si>
-  <si>
-    <t>WaitUntilInvisibilityOfElement</t>
-  </si>
-  <si>
-    <t>VerifyTextIsPresent</t>
-  </si>
-  <si>
-    <t>WaitUntilTextToBeNotPresent</t>
-  </si>
-  <si>
-    <t>WaitUntilTextToBePresent</t>
-  </si>
-  <si>
-    <t>WaitUntilElementToBeClickable</t>
-  </si>
-  <si>
-    <t>WaitUntilElementToBeSelected</t>
-  </si>
-  <si>
-    <t>TextToBePresentInElementValue</t>
-  </si>
-  <si>
-    <t>WaitForElementPresent</t>
-  </si>
-  <si>
-    <t>WaitForElementNotPresent</t>
-  </si>
-  <si>
-    <t>CheckTwoString</t>
-  </si>
-  <si>
-    <t>DeleteAllCookies</t>
-  </si>
-  <si>
-    <t>TakeScreeShot</t>
-  </si>
-  <si>
-    <t>Highlight</t>
-  </si>
-  <si>
-    <t>NewTab</t>
-  </si>
-  <si>
-    <t>CloseTab</t>
-  </si>
-  <si>
-    <t>SendHttpPost</t>
-  </si>
-  <si>
-    <t>SplitAndOpenURL</t>
-  </si>
-  <si>
-    <t>WaitForAjaxQuery</t>
-  </si>
-  <si>
-    <t>TypeUsingReference</t>
-  </si>
-  <si>
-    <t>CurrentWindowName</t>
-  </si>
-  <si>
-    <t>GetSecondWindowHandle</t>
-  </si>
-  <si>
-    <t>SwitchParticularWindow</t>
-  </si>
-  <si>
-    <t>TypeDynamicValueReuse</t>
-  </si>
-  <si>
-    <t>PatientLogin</t>
-  </si>
-  <si>
-    <t>PortalSelection</t>
-  </si>
-  <si>
-    <t>PatientSSN</t>
-  </si>
-  <si>
-    <t>PharmacyLogin</t>
-  </si>
-  <si>
-    <t>SSN9Digit</t>
-  </si>
-  <si>
-    <t>ProviderLogin</t>
-  </si>
-  <si>
-    <t>SikuliClick</t>
   </si>
 </sst>
 </file>
@@ -739,10 +742,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -774,24 +777,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,39 +794,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -865,11 +832,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -882,7 +865,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -895,6 +899,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -902,17 +914,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -951,7 +954,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,31 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,13 +1104,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,114 +1128,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1160,17 +1163,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.399945066682943"/>
-      </left>
-      <right style="thin">
-        <color theme="4" tint="0.399945066682943"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399945066682943"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1197,13 +1196,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1213,6 +1216,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,30 +1280,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1308,13 +1296,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1326,130 +1314,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1461,13 +1449,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1838,8 +1826,8 @@
   <sheetPr/>
   <dimension ref="A1:H348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="B346" sqref="B346:G346"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -1957,7 +1945,7 @@
         <v>19</v>
       </c>
       <c r="E5" s="12">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -1977,7 +1965,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="12">
-        <v>7411</v>
+        <v>6794</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -9321,7 +9309,7 @@
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
